--- a/biology/Botanique/Plage_urbaine_de_Verdun/Plage_urbaine_de_Verdun.xlsx
+++ b/biology/Botanique/Plage_urbaine_de_Verdun/Plage_urbaine_de_Verdun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La plage urbaine de Verdun (ou plage de Verdun) est une plage sur le fleuve Saint-Laurent située dans l'arrondissement de Verdun à Montréal, Québec. 
-La plage est inaugurée le 20 juin 2019 par la mairesse Valérie Plante, cinq ans après le lancement officiel du projet[1].
-L'arrondissement de Verdun utilise une technologie, le ColiMinder, qui permet d’évaluer la qualité de l’eau toutes les 15 minutes et d’avoir les résultats en temps réel[2].
+La plage est inaugurée le 20 juin 2019 par la mairesse Valérie Plante, cinq ans après le lancement officiel du projet.
+L'arrondissement de Verdun utilise une technologie, le ColiMinder, qui permet d’évaluer la qualité de l’eau toutes les 15 minutes et d’avoir les résultats en temps réel.
 </t>
         </is>
       </c>
@@ -513,10 +525,12 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Prix Excellence de l’Association québécoise du loisir municipal en 2019 dans la catégorie Municipalités, villes ou arrondissements - 25 000 à 74 999 habitants[3].
-Grand Prix de génie-conseil de l’Association des firmes de génie-conseil du Québec 2020 remis à la firme GBi, qui a mis au point des méthodes et des séquences de travail particulières, afin de respecter les habitats de la faune et de la flore au gré des saisons[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Prix Excellence de l’Association québécoise du loisir municipal en 2019 dans la catégorie Municipalités, villes ou arrondissements - 25 000 à 74 999 habitants.
+Grand Prix de génie-conseil de l’Association des firmes de génie-conseil du Québec 2020 remis à la firme GBi, qui a mis au point des méthodes et des séquences de travail particulières, afin de respecter les habitats de la faune et de la flore au gré des saisons.</t>
         </is>
       </c>
     </row>
